--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pthlh-Pth2r.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H2">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I2">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J2">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.682081</v>
       </c>
       <c r="O2">
-        <v>0.5429076975487683</v>
+        <v>0.4698491839234223</v>
       </c>
       <c r="P2">
-        <v>0.5429076975487682</v>
+        <v>0.4698491839234222</v>
       </c>
       <c r="Q2">
-        <v>0.06266058365344444</v>
+        <v>0.1335122022491111</v>
       </c>
       <c r="R2">
-        <v>0.5639452528809999</v>
+        <v>1.201609820242</v>
       </c>
       <c r="S2">
-        <v>0.01911503824765374</v>
+        <v>0.03389843985169591</v>
       </c>
       <c r="T2">
-        <v>0.01911503824765374</v>
+        <v>0.0338984398516959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H3">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I3">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J3">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.507422</v>
       </c>
       <c r="O3">
-        <v>0.4038865027842604</v>
+        <v>0.3495359240395067</v>
       </c>
       <c r="P3">
-        <v>0.4038865027842604</v>
+        <v>0.3495359240395067</v>
       </c>
       <c r="Q3">
-        <v>0.04661522411355555</v>
+        <v>0.0993240226448889</v>
       </c>
       <c r="R3">
-        <v>0.419537017022</v>
+        <v>0.8939162038040001</v>
       </c>
       <c r="S3">
-        <v>0.01422029192676669</v>
+        <v>0.0252181399957296</v>
       </c>
       <c r="T3">
-        <v>0.01422029192676669</v>
+        <v>0.0252181399957296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H4">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I4">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J4">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02228166666666667</v>
+        <v>0.08739966666666667</v>
       </c>
       <c r="N4">
-        <v>0.066845</v>
+        <v>0.262199</v>
       </c>
       <c r="O4">
-        <v>0.05320579966697125</v>
+        <v>0.180614892037071</v>
       </c>
       <c r="P4">
-        <v>0.05320579966697125</v>
+        <v>0.180614892037071</v>
       </c>
       <c r="Q4">
-        <v>0.006140834760555555</v>
+        <v>0.05132347319088889</v>
       </c>
       <c r="R4">
-        <v>0.05526751284499999</v>
+        <v>0.461911258718</v>
       </c>
       <c r="S4">
-        <v>0.001873303510381339</v>
+        <v>0.01303091132970251</v>
       </c>
       <c r="T4">
-        <v>0.001873303510381339</v>
+        <v>0.01303091132970251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>22.656104</v>
       </c>
       <c r="I5">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J5">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.682081</v>
       </c>
       <c r="O5">
-        <v>0.5429076975487683</v>
+        <v>0.4698491839234223</v>
       </c>
       <c r="P5">
-        <v>0.5429076975487682</v>
+        <v>0.4698491839234222</v>
       </c>
       <c r="Q5">
         <v>1.717033119158222</v>
@@ -759,10 +759,10 @@
         <v>15.453298072424</v>
       </c>
       <c r="S5">
-        <v>0.5237926593011146</v>
+        <v>0.4359507440717264</v>
       </c>
       <c r="T5">
-        <v>0.5237926593011145</v>
+        <v>0.4359507440717263</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>22.656104</v>
       </c>
       <c r="I6">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J6">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.507422</v>
       </c>
       <c r="O6">
-        <v>0.4038865027842604</v>
+        <v>0.3495359240395067</v>
       </c>
       <c r="P6">
-        <v>0.4038865027842604</v>
+        <v>0.3495359240395067</v>
       </c>
       <c r="Q6">
         <v>1.277356178209778</v>
@@ -821,10 +821,10 @@
         <v>11.496205603888</v>
       </c>
       <c r="S6">
-        <v>0.3896662108574937</v>
+        <v>0.3243177840437771</v>
       </c>
       <c r="T6">
-        <v>0.3896662108574936</v>
+        <v>0.3243177840437771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.656104</v>
       </c>
       <c r="I7">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J7">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02228166666666667</v>
+        <v>0.08739966666666667</v>
       </c>
       <c r="N7">
-        <v>0.066845</v>
+        <v>0.262199</v>
       </c>
       <c r="O7">
-        <v>0.05320579966697125</v>
+        <v>0.180614892037071</v>
       </c>
       <c r="P7">
-        <v>0.05320579966697125</v>
+        <v>0.180614892037071</v>
       </c>
       <c r="Q7">
-        <v>0.1682719190977778</v>
+        <v>0.6600453125217778</v>
       </c>
       <c r="R7">
-        <v>1.51444727188</v>
+        <v>5.940407812696</v>
       </c>
       <c r="S7">
-        <v>0.05133249615658991</v>
+        <v>0.1675839807073684</v>
       </c>
       <c r="T7">
-        <v>0.05133249615658991</v>
+        <v>0.1675839807073684</v>
       </c>
     </row>
   </sheetData>
